--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value381.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value381.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8273984788476583</v>
+        <v>1.742600083351135</v>
       </c>
       <c r="B1">
-        <v>1.310602252425374</v>
+        <v>3.500783681869507</v>
       </c>
       <c r="C1">
-        <v>1.894057008475075</v>
+        <v>2.934829711914062</v>
       </c>
       <c r="D1">
-        <v>2.245296406327662</v>
+        <v>2.018598556518555</v>
       </c>
       <c r="E1">
-        <v>2.606275401283429</v>
+        <v>1.172240734100342</v>
       </c>
     </row>
   </sheetData>
